--- a/Literature Review/3 Graphs data/5 Alloc-Sched-Planning venn.xlsx
+++ b/Literature Review/3 Graphs data/5 Alloc-Sched-Planning venn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/3 Graphs data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B212B0F-CE92-3743-89B3-9EC519B663D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6694AD-772D-334F-8B9F-3BFD469D34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40340" yWindow="-1760" windowWidth="39100" windowHeight="18140" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="27000" windowHeight="18000" activeTab="1" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
   <si>
     <t>Bibitex</t>
   </si>
@@ -541,15 +541,6 @@
     <t>high-level decision-making problem, namely, MA-POSMDP anddevelop a novel variant of SARSA called MA-SARTSA as ourlearning-based solution</t>
   </si>
   <si>
-    <t>UNCERTAINTIES TACKLED</t>
-  </si>
-  <si>
-    <t>SELF-ADAPTIVE</t>
-  </si>
-  <si>
-    <t>FORMAL METHOD?</t>
-  </si>
-  <si>
     <t>X (as part of the architecture, no specifics)</t>
   </si>
   <si>
@@ -566,18 +557,6 @@
   </si>
   <si>
     <t>SCH</t>
-  </si>
-  <si>
-    <t>P-A</t>
-  </si>
-  <si>
-    <t>P-SCH</t>
-  </si>
-  <si>
-    <t>A-SCH</t>
-  </si>
-  <si>
-    <t>P-A-SCH</t>
   </si>
   <si>
     <t>None considered</t>
@@ -736,6 +715,33 @@
   </si>
   <si>
     <t>3 implemented solutions using OTS tools: 1) a position control baseline, 2) a hybrid motion/forcecontrol  method  (spiral  search),  and  3)  a  3D  vision-basedpose estimation method</t>
+  </si>
+  <si>
+    <t>(use to count total)</t>
+  </si>
+  <si>
+    <t>only planning</t>
+  </si>
+  <si>
+    <t>only alloc</t>
+  </si>
+  <si>
+    <t>only sched</t>
+  </si>
+  <si>
+    <t>planning and alloc</t>
+  </si>
+  <si>
+    <t>planning and sch</t>
+  </si>
+  <si>
+    <t>alloc and sch</t>
+  </si>
+  <si>
+    <t>all 3</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -988,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,10 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1043,7 +1046,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1064,15 +1066,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,6 +1085,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1114,12 +1116,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>174753</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108949</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4319918" cy="3612893"/>
+    <xdr:ext cx="4914900" cy="4110497"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
@@ -1146,8 +1148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6375400" y="1635253"/>
-          <a:ext cx="4319918" cy="3612893"/>
+          <a:off x="8737600" y="2382249"/>
+          <a:ext cx="4914900" cy="4110497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1156,6 +1158,723 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2342702</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75037</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154656</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD884FA-E173-7748-B37E-CFF7F8AD7670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3168202" y="2627563"/>
+          <a:ext cx="5136435" cy="3864393"/>
+          <a:chOff x="10868708" y="2859142"/>
+          <a:chExt cx="4542647" cy="3437457"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6505B058-A287-5678-3D90-4ACCDB912E03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11108861" y="2859142"/>
+            <a:ext cx="3407950" cy="3437457"/>
+            <a:chOff x="11074400" y="2805736"/>
+            <a:chExt cx="3399144" cy="3373829"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="Oval 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54BFFC0-B544-DA4C-192D-A65A25B0DCFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12053735" y="2805736"/>
+              <a:ext cx="2419809" cy="2394966"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Oval 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8237D0DE-C78E-6ABC-9118-6CFD990C967F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11074400" y="3784600"/>
+              <a:ext cx="2419809" cy="2394965"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="29160"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="Oval 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9EABCD-1658-ACED-492C-BE2162A8FC39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12669603" y="3970323"/>
+              <a:ext cx="1613206" cy="1596644"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+                <a:alpha val="15655"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B379DC0C-8FE1-D7DB-0EE3-3800C12C01C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10868708" y="3854459"/>
+            <a:ext cx="1478721" cy="452230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Planning</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76F324C-0154-B4DD-59C7-A87A5DFDA55D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13559133" y="5599015"/>
+            <a:ext cx="1067022" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Scheduling</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3A935-C8F3-0D52-E532-82AF06899CF5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13396473" y="2873253"/>
+            <a:ext cx="2014882" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Allocation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202A1C63-DD2F-CCE5-7B39-AEE90FDBA15F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11554241" y="2871305"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>11</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4A5CB4-43DC-0D3D-569C-DA18B9570D49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11899348" y="5563152"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>8</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E4250B-DA14-7B57-3A95-C95E4B00F48C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13431632" y="4417392"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCC7175-988A-4009-6976-82FF07AEC8F9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12824793" y="3506857"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>14</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BFBED6-917E-ACEF-BCEA-FA21683B9DEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11526630" y="4348370"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>6</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B570A912-CB60-C685-B835-811E5AB08784}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12948479" y="4845326"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A20DE6E-5E21-13B1-49B1-606D17615008}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12299674" y="4320761"/>
+            <a:ext cx="565978" cy="496956"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>7</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1458,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16524EE4-B315-8646-AAD8-D0C34CFD31A1}">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1469,28 +2188,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
-        <v>178</v>
+      <c r="B1" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="C1" t="s">
         <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>170</v>
+      <c r="B2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Sheet1!H2:H74,"YES")</f>
         <v>35</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <f>D2/$G$2</f>
         <v>0.47945205479452052</v>
       </c>
@@ -1499,87 +2218,59 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>172</v>
+      <c r="B3" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Sheet1!I2:I74,"YES")</f>
-        <v>20</v>
-      </c>
-      <c r="E3" s="26">
-        <f t="shared" ref="E3:E8" si="0">D3/$G$2</f>
-        <v>0.27397260273972601</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="24">
+        <f>D3/$G$2</f>
+        <v>0.47945205479452052</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>173</v>
+      <c r="B4" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Sheet1!J2:J74,"YES")</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="26">
-        <f t="shared" si="0"/>
-        <v>0.15068493150684931</v>
+        <v>26</v>
+      </c>
+      <c r="E4" s="24">
+        <f>D4/$G$2</f>
+        <v>0.35616438356164382</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"-")</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="26">
-        <f t="shared" si="0"/>
+      <c r="E5" s="24">
+        <f>Sheet1!P2/$G$2</f>
+        <v>0.17808219178082191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="24">
+        <f>Sheet1!P3/$G$2</f>
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="24">
+        <f>Sheet1!P4/$G$2</f>
         <v>4.1095890410958902E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"-",Sheet1!J2:J74,"YES")</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="26">
-        <f t="shared" si="0"/>
-        <v>5.4794520547945202E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7">
-        <f>COUNTIFS(Sheet1!H2:H74,"-",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"YES")</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="26">
-        <f t="shared" si="0"/>
-        <v>5.4794520547945202E-2</v>
-      </c>
-    </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8">
-        <f>COUNTIFS(Sheet1!H2:H74,"YES",Sheet1!I2:I74,"YES",Sheet1!J2:J74,"YES")</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E8" s="24">
+        <f>Sheet1!P5/$G$2</f>
+        <v>9.5890410958904104E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1590,173 +2281,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A57DEA-80F0-8D48-81F9-BBB023D1BBDD}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="H74" sqref="H1:J74"/>
+    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="82" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="38" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="54.83203125" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="32"/>
+    <col min="4" max="6" width="54.83203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>169</v>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="H2" s="19" t="str">
+      <c r="H2" s="18" t="str">
         <f>IF( OR( ISBLANK(D2),D2= "-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="I2" s="20" t="str">
+      <c r="I2" t="str">
         <f t="shared" ref="I2:J2" si="0">IF( OR( ISBLANK(E2),E2= "-"),"-","YES")</f>
         <v>YES</v>
       </c>
-      <c r="J2" s="21" t="str">
+      <c r="J2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="35"/>
+      <c r="D3" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="19" t="str">
+      <c r="H3" s="18" t="str">
         <f t="shared" ref="H3:H66" si="1">IF( OR( ISBLANK(D3),D3= "-"),"-","YES")</f>
         <v>YES</v>
       </c>
-      <c r="I3" s="20" t="str">
-        <f t="shared" ref="I3:I66" si="2">IF( OR( ISBLANK(E3),E3= "-"),"-","YES")</f>
-        <v>-</v>
-      </c>
-      <c r="J3" s="21" t="str">
-        <f t="shared" ref="J3:J66" si="3">IF( OR( ISBLANK(F3),F3= "-"),"-","YES")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="19" t="str">
+        <f t="shared" ref="J3:J66" si="2">IF( OR( ISBLANK(F3),F3= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="P3">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I4" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>162</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="H5" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I5" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="37"/>
+      <c r="H5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I3:I66" si="3">IF( OR( ISBLANK(E5),E5= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1764,53 +2495,73 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I6" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>160</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I7" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1822,81 +2573,96 @@
       <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I8" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8">
+        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I9" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J9" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I10" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1908,147 +2674,159 @@
       <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I11" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J11" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I12" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J12" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I13" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J13" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="H14" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I14" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J14" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I15" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J15" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I15" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2060,139 +2838,146 @@
       <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I16" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J16" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="H17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I17" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J17" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="H17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I18" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J18" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="H18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I18" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="H19" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I19" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J19" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="H19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="H20" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I20" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J20" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="H20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2204,55 +2989,59 @@
       <c r="F21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I21" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J21" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J21" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="H22" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I22" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J22" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="H22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2262,57 +3051,63 @@
         <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J23" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="H23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J23" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="39"/>
-      <c r="H24" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I24" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J24" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="36"/>
+      <c r="H24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J24" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2324,63 +3119,69 @@
       <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I25" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J25" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J25" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I26" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J26" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="H26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>78</v>
@@ -2388,27 +3189,30 @@
       <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I27" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J27" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J27" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2416,27 +3220,30 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="H28" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I28" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J28" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2448,85 +3255,92 @@
       <c r="F29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I29" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J29" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I30" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J30" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J30" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="H31" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I31" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J31" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="H31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2538,111 +3352,118 @@
       <c r="F32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I32" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J32" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="H33" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J33" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="H33" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="H34" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J34" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="H34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="H35" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I35" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J35" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="H35" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2652,167 +3473,181 @@
         <v>87</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="H36" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J36" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="H37" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I37" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J37" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="H37" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="H38" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I38" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J38" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="H38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I39" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J39" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="H40" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I40" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J40" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="H41" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I41" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J41" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2822,27 +3657,30 @@
         <v>87</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="H42" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I42" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J42" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J42" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2854,27 +3692,30 @@
       <c r="F43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I43" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J43" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J43" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2884,55 +3725,60 @@
         <v>113</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="H44" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I44" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J44" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="35"/>
+      <c r="D45" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="37"/>
       <c r="F45" s="5"/>
-      <c r="H45" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I45" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J45" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I45" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>111</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2940,249 +3786,276 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="H46" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I46" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J46" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J46" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="H47" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I47" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J47" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J47" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="36"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H48" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I48" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J48" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J48" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="H49" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I49" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J49" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="H49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J49" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="H50" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J50" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="H50" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J50" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="H51" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I51" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J51" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J51" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>104</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H52" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I52" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J52" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="H52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J52" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I53" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J53" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="H53" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J53" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I54" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J54" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="H54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J54" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3190,295 +4063,327 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J55" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J55" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="H56" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J56" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="H57" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J57" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J57" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="H58" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I58" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J58" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="H58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J58" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="41"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I59" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J59" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J59" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="H60" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I60" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J60" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J60" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>94</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="H61" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I61" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J61" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J61" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="35"/>
-      <c r="H62" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I62" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="J62" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="37"/>
+      <c r="H62" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="H63" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I63" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J63" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J63" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="H64" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I64" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J64" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J64" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="H65" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I65" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J65" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J65" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3488,27 +4393,30 @@
       <c r="F66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H66" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I66" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J66" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="J66" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3518,117 +4426,129 @@
       <c r="F67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H67" s="19" t="str">
+      <c r="H67" s="18" t="str">
         <f t="shared" ref="H67:H74" si="4">IF( OR( ISBLANK(D67),D67= "-"),"-","YES")</f>
         <v>YES</v>
       </c>
-      <c r="I67" s="20" t="str">
+      <c r="I67" t="str">
         <f t="shared" ref="I67:I74" si="5">IF( OR( ISBLANK(E67),E67= "-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="J67" s="21" t="str">
+      <c r="J67" s="19" t="str">
         <f t="shared" ref="J67:J74" si="6">IF( OR( ISBLANK(F67),F67= "-"),"-","YES")</f>
         <v>YES</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H68" s="19" t="str">
+        <v>165</v>
+      </c>
+      <c r="H68" s="18" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I68" s="20" t="str">
+      <c r="I68" t="str">
         <f t="shared" si="5"/>
         <v>YES</v>
       </c>
-      <c r="J68" s="21" t="str">
+      <c r="J68" s="19" t="str">
         <f t="shared" si="6"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="19" t="str">
+        <v>204</v>
+      </c>
+      <c r="H69" s="18" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I69" s="20" t="str">
+      <c r="I69" t="str">
         <f t="shared" si="5"/>
         <v>YES</v>
       </c>
-      <c r="J69" s="21" t="str">
+      <c r="J69" s="19" t="str">
         <f t="shared" si="6"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="H70" s="19" t="str">
+      <c r="H70" s="18" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I70" s="20" t="str">
+      <c r="I70" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J70" s="21" t="str">
+      <c r="J70" s="19" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>78</v>
@@ -3636,100 +4556,125 @@
       <c r="F71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="19" t="str">
+      <c r="H71" s="18" t="str">
         <f t="shared" si="4"/>
         <v>YES</v>
       </c>
-      <c r="I71" s="20" t="str">
+      <c r="I71" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J71" s="21" t="str">
+      <c r="J71" s="19" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="H72" s="19" t="str">
+      <c r="H72" s="18" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I72" s="20" t="str">
+      <c r="I72" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J72" s="21" t="str">
+      <c r="J72" s="19" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="H73" s="19" t="str">
+      <c r="H73" s="18" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I73" s="20" t="str">
+      <c r="I73" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J73" s="21" t="str">
+      <c r="J73" s="19" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="22" t="str">
+      <c r="G74" s="31"/>
+      <c r="H74" s="20" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="I74" s="23" t="str">
+      <c r="I74" s="21" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="J74" s="24" t="str">
+      <c r="J74" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D58:F58"/>
@@ -3739,19 +4684,6 @@
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review/3 Graphs data/5 Alloc-Sched-Planning venn.xlsx
+++ b/Literature Review/3 Graphs data/5 Alloc-Sched-Planning venn.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/3 Graphs data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6694AD-772D-334F-8B9F-3BFD469D34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF8066-F298-E144-9797-F5703FC7D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="27000" windowHeight="18000" activeTab="1" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22220" windowHeight="18000" xr2:uid="{50919310-6A47-D04D-AE2F-79A6E32E45BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="9" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="Getting Citations" sheetId="10" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Getting Citations'!$E$1:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$K$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$K$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="233">
   <si>
     <t>Bibitex</t>
   </si>
@@ -602,12 +609,6 @@
   </si>
   <si>
     <t>Algorithm proposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task  assignment  and  motion  planning  holistically
-First, constructs  a multi-robot  roadmap  in  a  reduced configuration  space, accounting for  environment  connectivity  and  interference  cost between  robots occupying  the same  polygons
-Multi-robot motion planner considering kinodynamic constraints
-</t>
   </si>
   <si>
     <t>Multiple solutions are presented:
@@ -632,27 +633,7 @@
 marginal-cost assignment heuristic and a meta-heuristic improvement strategy based on Large Neighbourhood Search</t>
   </si>
   <si>
-    <t xml:space="preserve">
-The problem consists in finding paths in the Weighted Transition System (the mobility and capability of each robot i is modeled as a weighted transition system), using the LTL robot formulae through model checking</t>
-  </si>
-  <si>
-    <t>Partially coupled:
-1) task assignment
-2) motion planning
-3) coordination
-4) control</t>
-  </si>
-  <si>
     <t>resilient task allocation algorithm is invoked to redistribute robots among tasks while taking into account their degraded capabilities.</t>
-  </si>
-  <si>
-    <t>X (depending on the mission specified)</t>
-  </si>
-  <si>
-    <t>Randomized Sensitivity analysis (SA) for optimal assignments.
-Finding all Optimal Assignments and cost within the set of lnear boundaries
-Partitioning of teams of robots: via elementary matrix operations
-Incremenal communication</t>
   </si>
   <si>
     <t xml:space="preserve">Auction based - 
@@ -684,14 +665,8 @@
     </r>
   </si>
   <si>
-    <t>X (solve with planning)</t>
-  </si>
-  <si>
     <t>PWM algorithm based on Min-Min. 
 The paper regards task priority as the most importantevaluation criterion for QoS [1]. First, the algorithm obtainsthe length and the priority requirements of tasks submitted tothe cloud robot [2]. Then obtains the makespan difference ofthe task according to the task length and the running speed ofthe computing nodes. The makespan difference and the taskexecution priority are combined to obtain the weight of eachtask. Finally, according to the weight assignment tasks, a betterallocation strategy based on the greedy algorithm</t>
-  </si>
-  <si>
-    <t>Similar to min-*</t>
   </si>
   <si>
     <t xml:space="preserve">Game theory - modeled as a coalition-formation gamewhere self-interest agents are willing to form coalitions to im-prove their own interests. </t>
@@ -742,13 +717,98 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>Planning:</t>
+  </si>
+  <si>
+    <t>Alloc</t>
+  </si>
+  <si>
+    <t>Sched</t>
+  </si>
+  <si>
+    <t>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob,schillinger2018simultaneous,menghi2018multi,yu2021distributed,lian2021benchmarking</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Navigation/motion planning</t>
+  </si>
+  <si>
+    <t>patterns</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>out of 73</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Filtered citations:</t>
+  </si>
+  <si>
+    <t>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain,jang2018anonymous,gombolay2018fast,vazquez2021automated,vazquez2021scheduling</t>
+  </si>
+  <si>
+    <t>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,,,,,</t>
+  </si>
+  <si>
+    <t>Formulae to get citations</t>
+  </si>
+  <si>
+    <t>Randomized Sensitivity analysis (SA) for optimal assignments.
+Finding all Optimal Assignments and cost within the set of lnear boundaries
+Partitioning of teams of robots: via elementary matrix operations
+Incremenal communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task  assignment  and  motion  planning  holistically
+First, constructs  a multi-robot  roadmap  in  a  reduced configuration  space, accounting for  environment  connectivity  and  interference  cost between  robots occupying  the same  polygons
+Multi-robot motion planner considering kinodynamic constraints
+</t>
+  </si>
+  <si>
+    <t>The problem consists in finding paths in the Weighted Transition System (the mobility and capability of each robot i is modeled as a weighted transition system), using the LTL robot formulae through model checking</t>
+  </si>
+  <si>
+    <t>Partially coupled:
+1) task assignment
+2) motion planning
+3) coordination
+4) control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market/auction-based optimisation for scheduling </t>
+  </si>
+  <si>
+    <t>Task motion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,8 +868,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,8 +931,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -990,11 +1063,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1095,6 +1289,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,62 +1397,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>108949</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4914900" cy="4110497"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C7A0A-87DE-E644-A1FC-5462A5807C00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8737600" y="2382249"/>
-          <a:ext cx="4914900" cy="4110497"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2342702</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>151063</xdr:rowOff>
+      <xdr:colOff>2177602</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>75037</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>154656</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83816</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1184,10 +1423,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3168202" y="2627563"/>
-          <a:ext cx="5136435" cy="3864393"/>
-          <a:chOff x="10868708" y="2859142"/>
-          <a:chExt cx="4542647" cy="3437457"/>
+          <a:off x="3003102" y="3149598"/>
+          <a:ext cx="4959798" cy="3677918"/>
+          <a:chOff x="11037186" y="2690875"/>
+          <a:chExt cx="4386430" cy="3271583"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1203,10 +1442,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="11108861" y="2859142"/>
-            <a:ext cx="3407950" cy="3437457"/>
-            <a:chOff x="11074400" y="2805736"/>
-            <a:chExt cx="3399144" cy="3373829"/>
+            <a:off x="11391386" y="2690875"/>
+            <a:ext cx="3380781" cy="3271583"/>
+            <a:chOff x="11356192" y="2640584"/>
+            <a:chExt cx="3372044" cy="3211028"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -1222,8 +1461,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12053735" y="2805736"/>
-              <a:ext cx="2419809" cy="2394966"/>
+              <a:off x="12053732" y="2640584"/>
+              <a:ext cx="2674504" cy="2650428"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -1275,8 +1514,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11074400" y="3784600"/>
-              <a:ext cx="2419809" cy="2394965"/>
+              <a:off x="11356192" y="3616310"/>
+              <a:ext cx="2258487" cy="2235302"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -1334,8 +1573,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12669603" y="3970323"/>
-              <a:ext cx="1613206" cy="1596644"/>
+              <a:off x="12442860" y="3383469"/>
+              <a:ext cx="2097167" cy="2077855"/>
             </a:xfrm>
             <a:prstGeom prst="ellipse">
               <a:avLst/>
@@ -1393,8 +1632,157 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10868708" y="3854459"/>
-            <a:ext cx="1478721" cy="452230"/>
+            <a:off x="11037186" y="3639817"/>
+            <a:ext cx="1774467" cy="452230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1900"/>
+              <a:t>Planning</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76F324C-0154-B4DD-59C7-A87A5DFDA55D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14143188" y="5260107"/>
+            <a:ext cx="1280428" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1900"/>
+              <a:t>Scheduling</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3A935-C8F3-0D52-E532-82AF06899CF5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14149008" y="2737690"/>
+            <a:ext cx="1151059" cy="671996"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1900"/>
+              <a:t>Allocation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202A1C63-DD2F-CCE5-7B39-AEE90FDBA15F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13868000" y="5209764"/>
+            <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1424,17 +1812,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Planning</a:t>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5">
+          <xdr:cNvPr id="9" name="TextBox 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76F324C-0154-B4DD-59C7-A87A5DFDA55D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4A5CB4-43DC-0D3D-569C-DA18B9570D49}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,107 +1830,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13559133" y="5599015"/>
-            <a:ext cx="1067022" cy="671996"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Scheduling</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB3A935-C8F3-0D52-E532-82AF06899CF5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13396473" y="2873253"/>
-            <a:ext cx="2014882" cy="671996"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>Allocation</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202A1C63-DD2F-CCE5-7B39-AEE90FDBA15F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11554241" y="2871305"/>
+            <a:off x="11607320" y="4715884"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1580,10 +1868,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
+          <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4A5CB4-43DC-0D3D-569C-DA18B9570D49}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E4250B-DA14-7B57-3A95-C95E4B00F48C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1591,7 +1879,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11899348" y="5563152"/>
+            <a:off x="13768587" y="4349609"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1622,17 +1910,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>8</a:t>
+              <a:t>12</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9">
+          <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E4250B-DA14-7B57-3A95-C95E4B00F48C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCC7175-988A-4009-6976-82FF07AEC8F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1640,7 +1928,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13431632" y="4417392"/>
+            <a:off x="13453776" y="2896825"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1671,17 +1959,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>1</a:t>
+              <a:t>12</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10">
+          <xdr:cNvPr id="12" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCC7175-988A-4009-6976-82FF07AEC8F9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BFBED6-917E-ACEF-BCEA-FA21683B9DEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1689,7 +1977,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12824793" y="3506857"/>
+            <a:off x="13155247" y="5308608"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1720,17 +2008,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>14</a:t>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="TextBox 11">
+          <xdr:cNvPr id="13" name="TextBox 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BFBED6-917E-ACEF-BCEA-FA21683B9DEC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B570A912-CB60-C685-B835-811E5AB08784}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1738,7 +2026,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11526630" y="4348370"/>
+            <a:off x="13027101" y="4438637"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1769,56 +2057,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>6</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B570A912-CB60-C685-B835-811E5AB08784}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12948479" y="4845326"/>
-            <a:ext cx="565978" cy="496956"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1600"/>
-              <a:t>1</a:t>
+              <a:t>9</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1836,7 +2075,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12299674" y="4320761"/>
+            <a:off x="12176124" y="3857587"/>
             <a:ext cx="565978" cy="496956"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2175,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16524EE4-B315-8646-AAD8-D0C34CFD31A1}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2187,7 +2426,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>171</v>
       </c>
@@ -2198,7 +2437,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>166</v>
       </c>
@@ -2206,18 +2445,22 @@
         <v>167</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Sheet1!H2:H74,"YES")</f>
-        <v>35</v>
+        <f>COUNTIF(Sheet1!I2:I74,"YES")</f>
+        <v>29</v>
       </c>
       <c r="E2" s="24">
         <f>D2/$G$2</f>
-        <v>0.47945205479452052</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="G2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+        <f>SUM(D5:D10)</f>
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>168</v>
       </c>
@@ -2225,15 +2468,15 @@
         <v>169</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(Sheet1!I2:I74,"YES")</f>
-        <v>35</v>
+        <f>COUNTIF(Sheet1!J2:J74,"YES")</f>
+        <v>40</v>
       </c>
       <c r="E3" s="24">
         <f>D3/$G$2</f>
-        <v>0.47945205479452052</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>170</v>
       </c>
@@ -2241,36 +2484,103 @@
         <v>170</v>
       </c>
       <c r="D4">
-        <f>COUNTIF(Sheet1!J2:J74,"YES")</f>
-        <v>26</v>
+        <f>COUNTIF(Sheet1!K2:K74,"YES")</f>
+        <v>25</v>
       </c>
       <c r="E4" s="24">
         <f>D4/$G$2</f>
-        <v>0.35616438356164382</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"-")</f>
+        <v>11</v>
+      </c>
       <c r="E5" s="24">
-        <f>Sheet1!P2/$G$2</f>
-        <v>0.17808219178082191</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <f>Sheet1!Q2/$G$2</f>
+        <v>0.2391304347826087</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
+        <v>12</v>
+      </c>
       <c r="E6" s="24">
-        <f>Sheet1!P3/$G$2</f>
-        <v>0.12328767123287671</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <f>Sheet1!Q3/$G$2</f>
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
       <c r="E7" s="24">
-        <f>Sheet1!P4/$G$2</f>
-        <v>4.1095890410958902E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+        <f>Sheet1!Q4/$G$2</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
+        <v>7</v>
+      </c>
       <c r="E8" s="24">
-        <f>Sheet1!P5/$G$2</f>
-        <v>9.5890410958904104E-2</v>
+        <f>Sheet1!Q5/$G$2</f>
+        <v>0.15217391304347827</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="24">
+        <f>Sheet1!Q6/$G$2</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>12</v>
+      </c>
+      <c r="E10" s="24">
+        <f>Sheet1!Q7/$G$2</f>
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="24">
+        <f>Sheet1!Q8/$G$2</f>
+        <v>0.19565217391304349</v>
       </c>
     </row>
   </sheetData>
@@ -2281,22 +2591,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A57DEA-80F0-8D48-81F9-BBB023D1BBDD}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D57" zoomScale="82" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView showFormulas="1" zoomScale="63" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="38" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="7" customWidth="1"/>
     <col min="4" max="6" width="54.83203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="30"/>
+    <col min="7" max="7" width="30.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -2316,20 +2628,23 @@
       <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="L1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2344,30 +2659,30 @@
         <v>173</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="H2" s="18" t="str">
+      <c r="I2" s="18" t="str">
         <f>IF( OR( ISBLANK(D2),D2= "-"),"-","YES")</f>
         <v>-</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:J2" si="0">IF( OR( ISBLANK(E2),E2= "-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="J2" s="19" t="str">
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:K2" si="0">IF( OR( ISBLANK(E2),E2= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="K2" s="19" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="P2">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"-")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2384,29 +2699,29 @@
       <c r="F3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="18" t="str">
-        <f t="shared" ref="H3:H66" si="1">IF( OR( ISBLANK(D3),D3= "-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="I3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="19" t="str">
-        <f t="shared" ref="J3:J66" si="2">IF( OR( ISBLANK(F3),F3= "-"),"-","YES")</f>
-        <v>-</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="P3">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="18" t="str">
+        <f t="shared" ref="I3:I66" si="1">IF( OR( ISBLANK(D3),D3= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="19" t="str">
+        <f t="shared" ref="K3:K66" si="2">IF( OR( ISBLANK(F3),F3= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2421,29 +2736,29 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2458,29 +2773,32 @@
         <v>87</v>
       </c>
       <c r="F5" s="37"/>
-      <c r="H5" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I3:I66" si="3">IF( OR( ISBLANK(E5),E5= "-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="P5">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-")</f>
+      <c r="H5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J66" si="3">IF( OR( ISBLANK(E5),E5= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2490,35 +2808,39 @@
       <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I6" t="str">
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J6" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="P6">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2531,30 +2853,30 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I7" t="str">
+      <c r="I7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J7" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="P7">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"-",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2564,39 +2886,43 @@
       <c r="C8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I8" t="str">
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J8" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8">
-        <f>SUMIFS(Sheet1!$L$2:$L$74,Sheet1!$H$2:$H$74,"YES",Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2609,23 +2935,29 @@
       <c r="D9" s="33"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="H9" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I9" t="str">
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J9" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2640,22 +2972,22 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="5"/>
-      <c r="H10" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2674,23 +3006,26 @@
       <c r="F11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I11" t="str">
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J11" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2709,23 +3044,23 @@
       <c r="F12" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I12" t="str">
+      <c r="I12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J12" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2742,23 +3077,29 @@
       <c r="F13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J13" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2775,22 +3116,22 @@
         <v>175</v>
       </c>
       <c r="F14" s="37"/>
-      <c r="H14" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="I14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2800,26 +3141,26 @@
       <c r="C15" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="H15" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I15" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="42"/>
+      <c r="I15" s="18" t="str">
+        <f>IF( OR( ISBLANK(D15),D15= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="J15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2838,23 +3179,23 @@
       <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="I16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J16" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2869,21 +3210,21 @@
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
-      <c r="H17" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I17" t="s">
-        <v>214</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2898,21 +3239,24 @@
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
-      <c r="H18" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I18" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2927,21 +3271,21 @@
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
-      <c r="H19" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I19" t="s">
-        <v>214</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2956,21 +3300,21 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="H20" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2989,23 +3333,26 @@
       <c r="F21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="G21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J21" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3020,21 +3367,21 @@
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
-      <c r="H22" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I22" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3053,23 +3400,23 @@
       <c r="F23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="I23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J23" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3084,23 +3431,23 @@
         <v>87</v>
       </c>
       <c r="F24" s="36"/>
-      <c r="H24" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I24" t="str">
+      <c r="I24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J24" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3119,23 +3466,23 @@
       <c r="F25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J25" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3154,23 +3501,26 @@
       <c r="F26" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I26" t="str">
+      <c r="H26" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J26" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3189,23 +3539,23 @@
       <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I27" t="str">
+      <c r="I27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J27" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3220,23 +3570,23 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="H28" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I28" t="str">
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J28" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3255,23 +3605,23 @@
       <c r="F29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I29" t="str">
+      <c r="I29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J29" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3288,23 +3638,26 @@
       <c r="F30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I30" t="str">
+      <c r="H30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J30" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3314,26 +3667,30 @@
       <c r="C31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="H31" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I31" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="68"/>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="19" t="str">
+        <f>IF( OR( ISBLANK(F31),F31= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3352,23 +3709,23 @@
       <c r="F32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I32" t="str">
+      <c r="I32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J32" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3380,25 +3737,25 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="37"/>
-      <c r="H33" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I33" t="str">
+      <c r="I33" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J33" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3409,25 +3766,25 @@
         <v>37</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
-      <c r="H34" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I34" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3438,25 +3795,25 @@
         <v>121</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
-      <c r="H35" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I35" t="s">
-        <v>214</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3466,30 +3823,28 @@
       <c r="C36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="H36" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I36" t="str">
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J36" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3499,26 +3854,27 @@
       <c r="C37" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="H37" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I37" t="s">
-        <v>214</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="5"/>
+      <c r="I37" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3529,25 +3885,28 @@
         <v>41</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
-      <c r="H38" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3561,28 +3920,31 @@
         <v>78</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I39" t="str">
+      <c r="H39" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J39" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3595,23 +3957,26 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="H40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J40" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3624,23 +3989,26 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="H41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J41" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3657,23 +4025,23 @@
         <v>87</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="H42" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I42" t="str">
+      <c r="I42" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J42" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3692,23 +4060,26 @@
       <c r="F43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="H43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J43" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3725,23 +4096,23 @@
         <v>113</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="H44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="I44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J44" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3751,27 +4122,28 @@
       <c r="C45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="37"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="H45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I45" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K45" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3786,23 +4158,23 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="H46" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="I46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J46" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3812,28 +4184,28 @@
       <c r="C47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="F47" s="5"/>
-      <c r="H47" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="J47" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="18" t="str">
+        <f t="shared" ref="I47" si="4">IF( OR( ISBLANK(D47),D47= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ref="J47" si="5">IF( OR( ISBLANK(E47),E47= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="K47" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3844,27 +4216,32 @@
         <v>108</v>
       </c>
       <c r="D48" s="33"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I48" t="str">
+      <c r="H48" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="J48" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>YES</v>
+      </c>
+      <c r="K48" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3877,23 +4254,26 @@
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
-      <c r="H49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I49" t="str">
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J49" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3906,23 +4286,26 @@
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
-      <c r="H50" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I50" t="str">
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J50" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3934,26 +4317,26 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="H51" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I51" t="str">
+      <c r="I51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J51" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3963,30 +4346,26 @@
       <c r="C52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="J52" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="I52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3999,25 +4378,25 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I53" t="str">
+        <v>191</v>
+      </c>
+      <c r="I53" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J53" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4028,27 +4407,29 @@
         <v>59</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I54" t="str">
+        <v>231</v>
+      </c>
+      <c r="I54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="J54" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>YES</v>
+      </c>
+      <c r="K54" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4063,23 +4444,23 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I55" t="str">
+      <c r="I55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J55" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4092,23 +4473,26 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="H56" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I56" t="str">
+      <c r="G56" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J56" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4121,23 +4505,26 @@
       <c r="D57" s="33"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="H57" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I57" t="str">
+      <c r="G57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J57" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4150,23 +4537,26 @@
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
-      <c r="H58" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I58" t="str">
+      <c r="G58" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J58" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4179,23 +4569,26 @@
       <c r="D59" s="35"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I59" t="str">
+      <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J59" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4207,26 +4600,26 @@
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="H60" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I60" t="str">
+      <c r="I60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J60" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4239,23 +4632,26 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="H61" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I61" t="str">
+      <c r="G61" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J61" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4267,25 +4663,25 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F62" s="37"/>
-      <c r="H62" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I62" t="str">
+      <c r="I62" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="3"/>
         <v>YES</v>
       </c>
-      <c r="J62" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4296,27 +4692,27 @@
         <v>69</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="H63" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I63" t="str">
+      <c r="I63" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J63" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4327,27 +4723,27 @@
         <v>92</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="H64" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I64" t="str">
+      <c r="I64" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J64" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4360,23 +4756,26 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="H65" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="I65" t="str">
+      <c r="G65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I65" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J65" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4390,26 +4789,24 @@
         <v>87</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="I66" t="str">
+      <c r="F66" s="5"/>
+      <c r="I66" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J66" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="J66" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4426,23 +4823,26 @@
       <c r="F67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H67" s="18" t="str">
-        <f t="shared" ref="H67:H74" si="4">IF( OR( ISBLANK(D67),D67= "-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I74" si="5">IF( OR( ISBLANK(E67),E67= "-"),"-","YES")</f>
-        <v>-</v>
-      </c>
-      <c r="J67" s="19" t="str">
-        <f t="shared" ref="J67:J74" si="6">IF( OR( ISBLANK(F67),F67= "-"),"-","YES")</f>
-        <v>YES</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" s="18" t="str">
+        <f t="shared" ref="I67:I74" si="6">IF( OR( ISBLANK(D67),D67= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J72" si="7">IF( OR( ISBLANK(E67),E67= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="K67" s="19" t="str">
+        <f t="shared" ref="K67:K74" si="8">IF( OR( ISBLANK(F67),F67= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4459,23 +4859,23 @@
       <c r="F68" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H68" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-      <c r="J68" s="19" t="str">
+      <c r="I68" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="K68" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4487,28 +4887,28 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H69" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-      <c r="J69" s="19" t="str">
+        <v>197</v>
+      </c>
+      <c r="I69" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>YES</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="K69" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4521,23 +4921,26 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="H70" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="J70" s="19" t="str">
+      <c r="G70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="18" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="K70" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4548,7 +4951,7 @@
         <v>75</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>78</v>
@@ -4556,23 +4959,23 @@
       <c r="F71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="J71" s="19" t="str">
+      <c r="I71" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+        <v>YES</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="K71" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4585,23 +4988,23 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="H72" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="J72" s="19" t="str">
+      <c r="I72" s="18" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="K72" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4612,25 +5015,29 @@
         <v>81</v>
       </c>
       <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="H73" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="J73" s="19" t="str">
+      <c r="E73" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="18" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" ref="J73" si="9">IF( OR( ISBLANK(E73),E73= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="K73" s="19" t="str">
+        <f t="shared" ref="K73" si="10">IF( OR( ISBLANK(F73),F73= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" customFormat="1" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4641,49 +5048,4881 @@
         <v>79</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="G74" s="31"/>
-      <c r="H74" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="I74" s="21" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="J74" s="22" t="str">
+      <c r="I74" s="20" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="L74">
+      <c r="J74" s="31" t="str">
+        <f>IF( OR( ISBLANK(E74),E74= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="K74" s="19" t="str">
+        <f>IF( OR( ISBLANK(F74),F74= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="M74">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K74" xr:uid="{D1A57DEA-80F0-8D48-81F9-BBB023D1BBDD}"/>
   <mergeCells count="22">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:F15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D31:F31"/>
     <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D37:E37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ED327B-BC51-4645-B9F7-D90B39C9CB1A}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q74"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="54.83203125" style="29" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="30.5" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="I2" s="18" t="str">
+        <f>IF( OR( ISBLANK(D2),D2= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:K16" si="0">IF( OR( ISBLANK(E2),E2= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="K2" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"-")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="18" t="str">
+        <f t="shared" ref="I3:K66" si="1">IF( OR( ISBLANK(D3),D3= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="5"/>
+      <c r="I4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="H5" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"-")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"-",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="I7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"-",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8">
+        <f>SUMIFS(Sheet1!$M$2:$M$74,Sheet1!$I$2:$I$74,"YES",Sheet1!$J$2:$J$74,"YES",Sheet1!$K$2:$K$74,"YES")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="I14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="I15" s="18" t="str">
+        <f>IF( OR( ISBLANK(D15),D15= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="J15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="I17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="H18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="I19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="I20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K21" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="I22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K23" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="I24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K24" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K25" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K26" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K29" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K30" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="68"/>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J31" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="19" t="str">
+        <f>IF( OR( ISBLANK(F31),F31= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K32" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="I33" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="I34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="I35" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K36" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="5"/>
+      <c r="I37" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="H38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K39" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K40" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K41" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="I42" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K42" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K43" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="I44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K44" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K45" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="I46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K46" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="I47" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K47" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K48" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K49" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K50" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="I51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K51" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="I52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I53" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K53" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K54" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="I55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K55" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K56" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K57" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" t="s">
+        <v>213</v>
+      </c>
+      <c r="I58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K58" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K59" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="I60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K60" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K61" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="37"/>
+      <c r="I62" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="I63" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K63" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="I64" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K64" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" t="s">
+        <v>217</v>
+      </c>
+      <c r="I65" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K65" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="I66" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="K66" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" s="18" t="str">
+        <f t="shared" ref="I67:K74" si="2">IF( OR( ISBLANK(D67),D67= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K67" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="K68" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="K69" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K70" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K71" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="I72" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K72" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I73" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="K73" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>YES</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" customFormat="1" ht="38" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="J74" s="31" t="str">
+        <f>IF( OR( ISBLANK(E74),E74= "-"),"-","YES")</f>
+        <v>-</v>
+      </c>
+      <c r="K74" s="19" t="str">
+        <f>IF( OR( ISBLANK(F74),F74= "-"),"-","YES")</f>
+        <v>YES</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K74" xr:uid="{75ED327B-BC51-4645-B9F7-D90B39C9CB1A}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="22">
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00F3E95-414E-B44A-B08E-ECB270B65F67}">
+  <dimension ref="A1:V74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="135.5" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="59"/>
+    <col min="16" max="16" width="10.83203125" style="60"/>
+    <col min="17" max="17" width="10.83203125" style="49"/>
+    <col min="18" max="19" width="10.83203125" style="51"/>
+    <col min="20" max="20" width="10.83203125" style="61"/>
+    <col min="21" max="21" width="10.83203125" style="2"/>
+    <col min="22" max="22" width="10.83203125" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="55"/>
+      <c r="T1" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
+    </row>
+    <row r="2" spans="1:22" ht="170" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="66"/>
+      <c r="T3" s="63" t="str">
+        <f>O3</f>
+        <v>xu2022framework</v>
+      </c>
+      <c r="U3" s="2" t="str">
+        <f>P3</f>
+        <v>messeri2022dynamic</v>
+      </c>
+      <c r="V3" s="62" t="str">
+        <f t="shared" ref="V3" si="0">Q3</f>
+        <v>notomista2021resilient</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="221" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="66"/>
+      <c r="T4" s="61" t="str">
+        <f>_xlfn.CONCAT(T3,",",O4)</f>
+        <v>xu2022framework,seraj2021hierarchical</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f>_xlfn.CONCAT(U3,",",P4)</f>
+        <v>messeri2022dynamic,xu2022framework</v>
+      </c>
+      <c r="V4" s="62" t="str">
+        <f t="shared" ref="V4" si="1">_xlfn.CONCAT(V3,",",Q4)</f>
+        <v>notomista2021resilient,wang2022consensus</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="R5" s="66"/>
+      <c r="T5" s="61" t="str">
+        <f t="shared" ref="T5:T37" si="2">_xlfn.CONCAT(T4,",",O5)</f>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive</v>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f t="shared" ref="U5:U37" si="3">_xlfn.CONCAT(U4,",",P5)</f>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical</v>
+      </c>
+      <c r="V5" s="62" t="str">
+        <f t="shared" ref="V5:V37" si="4">_xlfn.CONCAT(V4,",",Q5)</f>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="170" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="66"/>
+      <c r="T6" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient</v>
+      </c>
+      <c r="V6" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="66"/>
+      <c r="T7" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated</v>
+      </c>
+      <c r="V7" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="204" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="66"/>
+      <c r="T8" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats</v>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative</v>
+      </c>
+      <c r="V8" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" s="66"/>
+      <c r="T9" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed</v>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus</v>
+      </c>
+      <c r="V9" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="66"/>
+      <c r="T10" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event</v>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed</v>
+      </c>
+      <c r="V10" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="66"/>
+      <c r="T11" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps</v>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic</v>
+      </c>
+      <c r="V11" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="356" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="66"/>
+      <c r="T12" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous</v>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event</v>
+      </c>
+      <c r="V12" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q13" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="66"/>
+      <c r="T13" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning</v>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps</v>
+      </c>
+      <c r="V13" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" s="66"/>
+      <c r="T14" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable</v>
+      </c>
+      <c r="U14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous</v>
+      </c>
+      <c r="V14" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="66"/>
+      <c r="T15" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network</v>
+      </c>
+      <c r="U15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning</v>
+      </c>
+      <c r="V15" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="66"/>
+      <c r="T16" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety</v>
+      </c>
+      <c r="U16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable</v>
+      </c>
+      <c r="V16" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="66"/>
+      <c r="T17" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving</v>
+      </c>
+      <c r="U17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling</v>
+      </c>
+      <c r="V17" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="66"/>
+      <c r="T18" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi</v>
+      </c>
+      <c r="V18" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="66"/>
+      <c r="T19" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior</v>
+      </c>
+      <c r="U19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized</v>
+      </c>
+      <c r="V19" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="66"/>
+      <c r="T20" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining</v>
+      </c>
+      <c r="U20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining</v>
+      </c>
+      <c r="V20" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="66"/>
+      <c r="T21" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event</v>
+      </c>
+      <c r="U21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event</v>
+      </c>
+      <c r="V21" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="66"/>
+      <c r="T22" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated</v>
+      </c>
+      <c r="U22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human</v>
+      </c>
+      <c r="V22" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" s="66"/>
+      <c r="T23" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated</v>
+      </c>
+      <c r="U23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated</v>
+      </c>
+      <c r="V23" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="T24" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated</v>
+      </c>
+      <c r="V24" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="66"/>
+      <c r="T25" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi</v>
+      </c>
+      <c r="V25" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="66"/>
+      <c r="T26" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi</v>
+      </c>
+      <c r="V26" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="66"/>
+      <c r="T27" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task</v>
+      </c>
+      <c r="U27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online</v>
+      </c>
+      <c r="V27" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="66"/>
+      <c r="T28" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise</v>
+      </c>
+      <c r="U28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient</v>
+      </c>
+      <c r="V28" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" s="66"/>
+      <c r="T29" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research</v>
+      </c>
+      <c r="U29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task</v>
+      </c>
+      <c r="V29" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="66"/>
+      <c r="T30" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots</v>
+      </c>
+      <c r="U30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive</v>
+      </c>
+      <c r="V30" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="R31" s="66"/>
+      <c r="T31" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic</v>
+      </c>
+      <c r="U31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions</v>
+      </c>
+      <c r="V31" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="66"/>
+      <c r="T32" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous</v>
+      </c>
+      <c r="U32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise</v>
+      </c>
+      <c r="V32" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="66"/>
+      <c r="T33" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob</v>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain</v>
+      </c>
+      <c r="V33" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="66"/>
+      <c r="T34" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob,schillinger2018simultaneous</v>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain,jang2018anonymous</v>
+      </c>
+      <c r="V34" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O35" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" s="66"/>
+      <c r="T35" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob,schillinger2018simultaneous,menghi2018multi</v>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain,jang2018anonymous,gombolay2018fast</v>
+      </c>
+      <c r="V35" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,,,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="R36" s="66"/>
+      <c r="T36" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob,schillinger2018simultaneous,menghi2018multi,yu2021distributed</v>
+      </c>
+      <c r="U36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain,jang2018anonymous,gombolay2018fast,vazquez2021automated</v>
+      </c>
+      <c r="V36" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,,,,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O37" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="66"/>
+      <c r="T37" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>xu2022framework,seraj2021hierarchical,mayya2022adaptive,li2022efficient,fang2022automated,bustamante2022cats,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,salvado2021network,pupa2021safety,smith2021achieving,dos2021anytime,scheide2021behavior,salvado2021combining,gundana2021event,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,al2021task,garcia2020promise,zhang2020research,nam2019robots,bae2019heuristic,kim2019continuous,garrett2018ffrob,schillinger2018simultaneous,menghi2018multi,yu2021distributed,lian2021benchmarking</v>
+      </c>
+      <c r="U37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>messeri2022dynamic,xu2022framework,seraj2021hierarchical,notomista2021resilient,fang2022automated,gjeldum2022collaborative,wang2022consensus,ferreira2022distributed,alirezazadeh2022dynamic,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,suslova2020multi,chen2021decentralized,salvado2021combining,gundana2021event,ham2021human,liu2021integrated,chen2021integrated,park2021multi,bai2021multi,forte2021online,mayya2021resilient,al2021task,emam2020adaptive,otte2020auctions,garcia2020promise,losvik2019domain,jang2018anonymous,gombolay2018fast,vazquez2021automated,vazquez2021scheduling</v>
+      </c>
+      <c r="V37" s="62" t="str">
+        <f t="shared" si="4"/>
+        <v>notomista2021resilient,wang2022consensus,ferreira2022distributed,gundana2022event,messing2022grstaps,bezerra2022heterogeneous,paull2022learning,leahy2021scalable,vazquez2022scheduling,pupa2021safety,chen2021decentralized,salvado2021combining,ham2021human,liu2021integrated,chen2021integrated,bai2021multi,forte2021online,behrens2020simultaneous,bae2019heuristic,wang2019multi,tereshchuk2019efficient,gombolay2018fast,menghi2018multi,yu2021distributed,vazquez2021automated,vazquez2021scheduling,nikolakis2018shared,ham2021transfer,,,,,,,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="85" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="204" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="238" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="170" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="119" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="238" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="204" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="340" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:G74" xr:uid="{B00F3E95-414E-B44A-B08E-ECB270B65F67}"/>
+  <mergeCells count="2">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
